--- a/методы оптимизации/lab2.xlsx
+++ b/методы оптимизации/lab2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Different things\university\методы оптимизации\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\Asu_FTF_lectures\методы оптимизации\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA4DBF-CFAB-4849-8BFE-094C8183535F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE09BE8-FB2D-4D7A-BAF8-225ECEFFFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10575" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{B9D7F792-DDCB-4D33-B868-26031B1BB80D}"/>
+    <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" xr2:uid="{B9D7F792-DDCB-4D33-B868-26031B1BB80D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$C$11:$F$13</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Матрица стоимости перевозок С</t>
   </si>
@@ -111,6 +112,66 @@
   </si>
   <si>
     <t>Целевая функция</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В5</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
   </si>
 </sst>
 </file>
@@ -136,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +234,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -366,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,9 +494,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,9 +539,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -479,7 +579,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -585,7 +685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,7 +838,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B3" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,4 +1092,594 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FD7CF6-1188-4ADD-8FE7-E38EAE8E9DE5}">
+  <dimension ref="A2:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="12.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23">
+        <v>15</v>
+      </c>
+      <c r="D3" s="23">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <v>6</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4</v>
+      </c>
+      <c r="E4" s="23">
+        <v>17</v>
+      </c>
+      <c r="F4" s="24">
+        <v>8</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25">
+        <v>13</v>
+      </c>
+      <c r="E5" s="25">
+        <v>14</v>
+      </c>
+      <c r="F5" s="26">
+        <v>7</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="23">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23">
+        <v>30</v>
+      </c>
+      <c r="E9" s="23">
+        <v>20</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <f>SUM(C9:G9)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23">
+        <v>20</v>
+      </c>
+      <c r="F10" s="24">
+        <v>27</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" ref="H10:H11" si="0">SUM(C10:G10)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>23</v>
+      </c>
+      <c r="G11" s="26">
+        <v>15</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="22">
+        <f>SUM(C9:C11)</f>
+        <v>20</v>
+      </c>
+      <c r="D12" s="22">
+        <f t="shared" ref="D12:G12" si="1">SUM(D9:D11)</f>
+        <v>30</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="23">
+        <f>IF(C9&lt;&gt;0,C3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" ref="D15:G15" si="2">IF(D9&lt;&gt;0,D3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="23">
+        <f>L22</f>
+        <v>20</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" ref="M15:P15" si="3">M22</f>
+        <v>30</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" ref="C16:G17" si="4">IF(C10&lt;&gt;0,C4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>-6</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" ref="L16:P17" si="5">L23</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <f>IF(F11&lt;&gt;0,F5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>-7</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="22">
+        <v>15</v>
+      </c>
+      <c r="D18" s="22">
+        <v>3</v>
+      </c>
+      <c r="E18" s="22">
+        <v>23</v>
+      </c>
+      <c r="F18" s="22">
+        <v>14</v>
+      </c>
+      <c r="G18" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="23">
+        <f>C15-$H15-C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" ref="D22:G22" si="6">D15-$H15-D$18</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <f>F15-$H15-F$18</f>
+        <v>-14</v>
+      </c>
+      <c r="G22" s="23">
+        <f>G15-$H15-G$18</f>
+        <v>-7</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="23">
+        <v>20</v>
+      </c>
+      <c r="M22" s="23">
+        <v>30</v>
+      </c>
+      <c r="N22" s="23">
+        <v>20</v>
+      </c>
+      <c r="O22" s="24">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="23">
+        <f>C16-$H16-C$18</f>
+        <v>-9</v>
+      </c>
+      <c r="D23" s="23">
+        <f t="shared" ref="D23:G23" si="7">D16-$H16-D$18</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="27">
+        <v>20</v>
+      </c>
+      <c r="O23" s="28">
+        <v>27</v>
+      </c>
+      <c r="P23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" ref="C23:G24" si="8">C17-$H17-C$18</f>
+        <v>-8</v>
+      </c>
+      <c r="D24" s="23">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="25">
+        <v>0</v>
+      </c>
+      <c r="N24" s="30">
+        <v>0</v>
+      </c>
+      <c r="O24" s="29">
+        <v>23</v>
+      </c>
+      <c r="P24" s="26">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>